--- a/temporal_features.xlsx
+++ b/temporal_features.xlsx
@@ -595,19 +595,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3873627803e-07</v>
+        <v>2.562117206513333e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>3.14086987701e-06</v>
+        <v>2.83862471437e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>9.7110975443135e-07</v>
+        <v>9.741879885662665e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>6.835655870915e-07</v>
+        <v>7.456344983501667e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>5.46308091653486e-13</v>
+        <v>4.485059921931865e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -616,28 +616,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8897148767103907</v>
+        <v>0.9491106444338957</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75760059794595e-05</v>
+        <v>1.76856136835345e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.690088114032407e-08</v>
+        <v>-8.184493473293183e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.02209032793e-07</v>
+        <v>4.199701924e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>2.87034477353e-06</v>
+        <v>1.737145590523333e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.043338685235501e-07</v>
+        <v>9.687619485278832e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>6.67879353045e-07</v>
+        <v>7.732853631320001e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>4.717543492081343e-13</v>
+        <v>1.54368788044592e-13</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1075121428147531</v>
+        <v>0.3150390912555523</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7515237986326e-05</v>
+        <v>1.815951878636934e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>4.883120041721698e-10</v>
+        <v>1.904818367633259e-08</v>
       </c>
       <c r="V2" t="n">
         <v>2.12608354082e-08</v>
@@ -661,13 +661,13 @@
         <v>3.74536020228e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>1.26195056566093e-06</v>
+        <v>1.247766978242247e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.67583476328e-07</v>
+        <v>7.278597464915e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.696670288835707e-12</v>
+        <v>1.397656181930858e-12</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7534310197494163</v>
+        <v>0.9364607246017564</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.28275007435636e-05</v>
+        <v>2.268566486937677e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.392068953281217e-07</v>
+        <v>-1.419221562621565e-07</v>
       </c>
     </row>
     <row r="3">
@@ -690,19 +690,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.58232209437e-07</v>
+        <v>7.328038916436666e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>4.78806754298e-06</v>
+        <v>5.042915583856667e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1402366381688e-06</v>
+        <v>2.196836635959883e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.445013611075e-06</v>
+        <v>1.295573651128167e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>2.053339169250145e-12</v>
+        <v>2.1721858379428e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -711,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9082264993462803</v>
+        <v>0.9686977421947944</v>
       </c>
       <c r="J3" t="n">
-        <v>4.061727587738101e-05</v>
+        <v>4.08993555129435e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.943789189535097e-07</v>
+        <v>2.140359741299571e-07</v>
       </c>
       <c r="L3" t="n">
         <v>1.83660527231e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>6.33311083309e-06</v>
+        <v>5.871143998156667e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.46065412741775e-06</v>
+        <v>2.554206561117417e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.581225079705e-06</v>
+        <v>1.846441983513667e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>4.713374539416086e-12</v>
+        <v>3.765724084445275e-12</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -741,28 +741,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6752636317026048</v>
+        <v>0.892119121453035</v>
       </c>
       <c r="T3" t="n">
-        <v>4.6020226448845e-05</v>
+        <v>4.749361072907334e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.896627165333345e-07</v>
+        <v>2.543035667589235e-07</v>
       </c>
       <c r="V3" t="n">
-        <v>2.26645691909e-07</v>
+        <v>1.035970242569667e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>8.28210227424e-06</v>
+        <v>7.56457972133e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>2.53327386736285e-06</v>
+        <v>2.511581327136034e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.55651893826e-06</v>
+        <v>1.853839357328e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.393204867985894e-12</v>
+        <v>3.174402194848788e-12</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7691045499043181</v>
+        <v>0.9452492580336078</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.64111033641825e-05</v>
+        <v>4.593135156077084e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.204501595460338e-07</v>
+        <v>2.021095609651238e-07</v>
       </c>
     </row>
     <row r="4">
@@ -785,94 +785,94 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.21940529813e-06</v>
+        <v>6.288382499603333e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000957066719678</v>
+        <v>0.000847826073488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000226313611597128</v>
+        <v>0.0002173078782678913</v>
       </c>
       <c r="E4" t="n">
-        <v>5.36598957126e-05</v>
+        <v>5.534735352256667e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>9.245272378360316e-08</v>
+        <v>7.437382354919686e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>1.450137858032137</v>
+        <v>1.194405015403704</v>
       </c>
       <c r="H4" t="n">
-        <v>1.037847567866078</v>
+        <v>0.1235548190073574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9418353683495846</v>
+        <v>0.9743552202413306</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004044129169454495</v>
+        <v>0.003957433544165691</v>
       </c>
       <c r="K4" t="n">
-        <v>4.464490302720501e-05</v>
+        <v>4.163270279183711e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.92962735241e-07</v>
+        <v>7.850246264147e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00159913664815</v>
+        <v>0.001492652093233333</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0003751079790290371</v>
+        <v>0.000408590137498418</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865684933005e-05</v>
+        <v>6.171842275453333e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.849372787319104e-07</v>
+        <v>2.402958710114082e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.384911289026874</v>
+        <v>0.9223984869180358</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6553043061397359</v>
+        <v>-0.6045699883298101</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7103601516913014</v>
+        <v>0.932387159239298</v>
       </c>
       <c r="T4" t="n">
-        <v>0.007472187934633991</v>
+        <v>0.007594751744061951</v>
       </c>
       <c r="U4" t="n">
-        <v>6.548298494096266e-05</v>
+        <v>7.512115165641803e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>3.4639173684e-06</v>
+        <v>6.12953461551e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00459187598293</v>
+        <v>0.001664976117044233</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0002846428638993445</v>
+        <v>0.0002082985384454998</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.640580131515e-05</v>
+        <v>4.049335314615667e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.849491102621698e-07</v>
+        <v>2.353308828039652e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.409849231199175</v>
+        <v>2.852501816695595</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.59680922283434</v>
+        <v>6.902337070687988</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7373132098761278</v>
+        <v>0.7280498384462912</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.003393854519214135</v>
+        <v>0.003336282275290522</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.265394140920819e-05</v>
+        <v>4.852215657586392e-05</v>
       </c>
     </row>
     <row r="5">
@@ -880,94 +880,94 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.93364116383e-07</v>
+        <v>1.117841906321e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0012278237668</v>
+        <v>0.001019193613977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002005908746594966</v>
+        <v>0.0002095236442253393</v>
       </c>
       <c r="E5" t="n">
-        <v>2.73696671454e-06</v>
+        <v>2.726030122971667e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>1.316622745330185e-07</v>
+        <v>1.105392897400709e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>1.991386192524319</v>
+        <v>1.475840732515087</v>
       </c>
       <c r="H5" t="n">
-        <v>2.844206277559914</v>
+        <v>0.6327404961166341</v>
       </c>
       <c r="I5" t="n">
-        <v>0.775074238808518</v>
+        <v>0.9288360095596999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003800858367198453</v>
+        <v>0.003821498747985357</v>
       </c>
       <c r="K5" t="n">
-        <v>-4.316139776245464e-05</v>
+        <v>-4.550815888240082e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.46110609564e-08</v>
+        <v>9.677176779176e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00206677274285</v>
+        <v>0.00202932239774</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0003326994403189103</v>
+        <v>0.0002991041858197382</v>
       </c>
       <c r="O5" t="n">
-        <v>3.554594595445e-06</v>
+        <v>2.498910692594234e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>5.111423687372537e-07</v>
+        <v>3.368466160803835e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.10298679817749</v>
+        <v>2.065712638342237</v>
       </c>
       <c r="R5" t="n">
-        <v>2.739820638703422</v>
+        <v>3.271037872668145</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8218287085783347</v>
+        <v>0.8791311814799632</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005620237197596792</v>
+        <v>0.005284284652605073</v>
       </c>
       <c r="U5" t="n">
-        <v>-8.179631420092568e-05</v>
+        <v>-7.113641162231619e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>3.82224175192e-08</v>
+        <v>1.084584629019466e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0046240162079</v>
+        <v>0.001623754219112</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0002898340354506269</v>
+        <v>0.000366156323379267</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.76045037316e-06</v>
+        <v>5.627642760814866e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.009107691019658e-06</v>
+        <v>3.831618480189925e-07</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.333073928291701</v>
+        <v>1.550538669667706</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.06118550046228</v>
+        <v>0.5715066382663725</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.02603419731388773</v>
+        <v>0.507994574323405</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005790328231965494</v>
+        <v>0.006553551111251895</v>
       </c>
       <c r="AE5" t="n">
-        <v>-5.14806785006385e-05</v>
+        <v>-7.331742178965449e-05</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +975,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.41948156353e-07</v>
+        <v>2.026690207609999e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>1.84615933451e-06</v>
+        <v>1.936506471716667e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5096050117385e-07</v>
+        <v>7.903613479264998e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>5.598608366355e-07</v>
+        <v>7.554636030064999e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>2.859112369432593e-13</v>
+        <v>2.635619617343061e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,28 +996,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6927326230868635</v>
+        <v>0.8869150643842447</v>
       </c>
       <c r="J6" t="n">
-        <v>1.40606988765765e-05</v>
+        <v>1.432713806789833e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.663492747655262e-08</v>
+        <v>3.303794756823709e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>8.403347240280001e-09</v>
+        <v>1.25466080192e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>8.33265548361e-06</v>
+        <v>3.79945256627e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.141987982943749e-06</v>
+        <v>1.165262435137154e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>3.03979392824e-07</v>
+        <v>7.7786879124945e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>3.842220841374543e-12</v>
+        <v>1.257431658162705e-12</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1026,28 +1026,28 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01704039132448201</v>
+        <v>0.6104320513925056</v>
       </c>
       <c r="T6" t="n">
-        <v>2.108988286885263e-05</v>
+        <v>2.143888840495413e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>2.664246573482406e-08</v>
+        <v>6.061844735188934e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4434695686e-07</v>
+        <v>2.3936331885e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>5.19174086161e-06</v>
+        <v>3.305311998396666e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>1.08374816772805e-06</v>
+        <v>1.099618867014549e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.94745948027e-07</v>
+        <v>1.007069929262999e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.353436690875841e-12</v>
+        <v>6.978293187654849e-13</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5605066232384022</v>
+        <v>0.7978930977480931</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.8995969482506e-05</v>
+        <v>1.958489692476449e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.939801854208196e-08</v>
+        <v>2.831994353716717e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.95859163577e-07</v>
+        <v>1.498328478222333e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.71826125219e-05</v>
+        <v>3.2501154608e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>6.54280117651235e-06</v>
+        <v>7.402801873258683e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>4.598701501155e-06</v>
+        <v>5.425239759996666e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>2.234299731438303e-11</v>
+        <v>4.803838388066053e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.577529556501792</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7813173901341738</v>
+        <v>0.9043419534784205</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000122358314934697</v>
+        <v>0.0001305828613704253</v>
       </c>
       <c r="K7" t="n">
-        <v>6.650911280245436e-07</v>
+        <v>9.230640892801776e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>1.03627164627e-08</v>
+        <v>4.63992442246e-08</v>
       </c>
       <c r="M7" t="n">
-        <v>3.78728716255e-05</v>
+        <v>0.0001120549315745333</v>
       </c>
       <c r="N7" t="n">
-        <v>9.031220689479961e-06</v>
+        <v>1.396213381446037e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>4.16574599882e-06</v>
+        <v>5.886191889971985e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.35670731175182e-10</v>
+        <v>5.655628355566763e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.739506699606077</v>
+        <v>3.767363053884863</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.37710399043982</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2911505262231784</v>
+        <v>0.5616536751196652</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001725047956137892</v>
+        <v>0.0002218139268635933</v>
       </c>
       <c r="U7" t="n">
-        <v>8.762392330535996e-07</v>
+        <v>2.320055736334796e-06</v>
       </c>
       <c r="V7" t="n">
         <v>2.93389848933e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24892958104e-05</v>
+        <v>1.809582689706e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>8.042556030553601e-06</v>
+        <v>7.826682338091432e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.38910645281e-06</v>
+        <v>8.924873483773331e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.397523213076054e-11</v>
+        <v>3.50554897098304e-11</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5777812922484851</v>
+        <v>0.8805048409582258</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000148596176810122</v>
+        <v>0.0001464374398855003</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.656802771123488e-07</v>
+        <v>8.703677297077748e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1165,94 +1165,94 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.42180590022e-07</v>
+        <v>9.789397799796667e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00122333113449</v>
+        <v>0.0009533222485493334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003109870816723769</v>
+        <v>0.0003101103836189419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001591917696055</v>
+        <v>0.0001972599756318334</v>
       </c>
       <c r="F8" t="n">
-        <v>1.13558750415312e-07</v>
+        <v>7.923215913511139e-08</v>
       </c>
       <c r="G8" t="n">
-        <v>1.392521906589496</v>
+        <v>0.7400707137433193</v>
       </c>
       <c r="H8" t="n">
-        <v>1.306525164822237</v>
+        <v>-0.5573713657719455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6153878646391957</v>
+        <v>0.8692007451800116</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006185722471673728</v>
+        <v>0.006166693262363233</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.215353817880686e-05</v>
+        <v>-1.186123192130555e-05</v>
       </c>
       <c r="L8" t="n">
         <v>9.92256985466e-08</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00172487134298</v>
+        <v>0.001570517127946667</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0005718252814623093</v>
+        <v>0.0005668832636532474</v>
       </c>
       <c r="O8" t="n">
-        <v>0.000312017814018</v>
+        <v>0.0004213585168371666</v>
       </c>
       <c r="P8" t="n">
-        <v>3.411116431145574e-07</v>
+        <v>2.699069856312805e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7753976703940607</v>
+        <v>0.6042155140497177</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.939091437826125</v>
+        <v>-0.994870038978902</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7278206842204689</v>
+        <v>0.905154805111238</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01128044710938791</v>
+        <v>0.01123102693129729</v>
       </c>
       <c r="U8" t="n">
-        <v>-3.38908884611421e-05</v>
+        <v>-3.228993077352659e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>2.31400015592e-06</v>
+        <v>1.836419730784982e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.000322596065223</v>
+        <v>0.0001641247918376666</v>
       </c>
       <c r="X8" t="n">
-        <v>8.896052081118949e-05</v>
+        <v>8.919455843595839e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000109876841816</v>
+        <v>0.0001123546729143183</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.055252303485824e-09</v>
+        <v>3.116658478846557e-09</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.089698896167133</v>
+        <v>-0.5667075695800766</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.043949702128105</v>
+        <v>-1.263624336520285</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.03805677753912783</v>
+        <v>0.6948852795908503</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00177487055354955</v>
+        <v>0.001777210929797239</v>
       </c>
       <c r="AE8" t="n">
-        <v>-2.665055138155492e-06</v>
+        <v>-2.74353724608248e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1260,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.63942078869e-07</v>
+        <v>2.442941177543333e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.31952986132e-06</v>
+        <v>2.049601326093333e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.726275935307e-07</v>
+        <v>6.715229632506333e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>4.037707640215e-07</v>
+        <v>3.953495687565e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>4.02981591425328e-13</v>
+        <v>3.116879137255633e-13</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1281,28 +1281,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.85211488782931</v>
+        <v>0.9013171993612447</v>
       </c>
       <c r="J9" t="n">
-        <v>1.26658291969695e-05</v>
+        <v>1.25533459172095e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>-8.092581862571726e-08</v>
+        <v>-7.235686984402556e-08</v>
       </c>
       <c r="L9" t="n">
-        <v>8.35646050135e-08</v>
+        <v>6.258421281216668e-08</v>
       </c>
       <c r="M9" t="n">
-        <v>3.52248082003e-06</v>
+        <v>2.836161566673333e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>7.234833957091799e-07</v>
+        <v>6.653801240743899e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>3.27953336821e-07</v>
+        <v>3.359109892651667e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>1.020435871187334e-12</v>
+        <v>6.358374864820369e-13</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1311,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8658488517981227</v>
+        <v>0.9205388906696871</v>
       </c>
       <c r="T9" t="n">
-        <v>1.266664520166185e-05</v>
+        <v>1.208561248531395e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.260423139744712e-07</v>
+        <v>-1.083170514725309e-07</v>
       </c>
       <c r="V9" t="n">
         <v>8.3512421277e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.60354006336e-06</v>
+        <v>2.696113002411649e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6114541514365e-07</v>
+        <v>8.969515338035031e-07</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.880638854e-07</v>
+        <v>5.600896157263154e-07</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.136554305513361e-13</v>
+        <v>5.217470165765512e-13</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4959564355405056</v>
+        <v>0.8389703980042854</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.6539552875469e-05</v>
+        <v>1.689761406206742e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>-7.877744316326684e-08</v>
+        <v>-8.199387909827895e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1355,19 +1355,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.56714306423e-07</v>
+        <v>4.928051844363334e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>6.04881135078e-06</v>
+        <v>8.275994879566667e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5872382463661e-06</v>
+        <v>2.777693050194367e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>2.27063194271e-06</v>
+        <v>2.093823428428333e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>2.508798285055376e-12</v>
+        <v>3.636103699655412e-12</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8399955637774122</v>
+        <v>0.9203767255124823</v>
       </c>
       <c r="J10" t="n">
-        <v>4.93472222826855e-05</v>
+        <v>5.110622605047367e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.385433588561083e-07</v>
+        <v>2.991518697052566e-07</v>
       </c>
       <c r="L10" t="n">
         <v>2.06234284095e-08</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01775564469e-05</v>
+        <v>1.499243951444667e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6002215588784e-06</v>
+        <v>3.2148554618198e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37756810559e-06</v>
+        <v>2.699434477561583e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>8.250170418617881e-12</v>
+        <v>1.033999650215169e-11</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1406,28 +1406,28 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03748784554894695</v>
+        <v>0.379536905558532</v>
       </c>
       <c r="T10" t="n">
-        <v>5.063374853945324e-05</v>
+        <v>5.678008756886725e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.152830603134752e-07</v>
+        <v>3.889398642742328e-07</v>
       </c>
       <c r="V10" t="n">
-        <v>2.23681436637e-07</v>
+        <v>8.752790245323155e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>8.267524352760001e-06</v>
+        <v>8.908043097906649e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>3.507572874553501e-06</v>
+        <v>3.527671714407705e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.106623159105e-06</v>
+        <v>2.807846373168815e-06</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.755035314367578e-12</v>
+        <v>5.254134905235823e-12</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7915783344551468</v>
+        <v>0.9660415955852133</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.541715640545001e-05</v>
+        <v>6.561814480399195e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.413390429231563e-07</v>
+        <v>3.503549743628437e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1450,94 +1450,94 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.54128986904e-05</v>
+        <v>1.393877069363667e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00127942696041</v>
+        <v>0.001135445763987333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00048522605034312</v>
+        <v>0.0004663925572567151</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000382717929444</v>
+        <v>0.0004676924162618334</v>
       </c>
       <c r="F11" t="n">
-        <v>1.844921726566439e-07</v>
+        <v>1.336498660808439e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7014756220228655</v>
+        <v>0.2684649740185749</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.8171609835808056</v>
+        <v>-1.425118070366158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7864820888507521</v>
+        <v>0.9478810396160103</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009079495706127351</v>
+        <v>0.008882610085057986</v>
       </c>
       <c r="K11" t="n">
-        <v>6.70845542208003e-05</v>
+        <v>6.120952340921826e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.73476790444e-06</v>
+        <v>2.693547919994666e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00232150876595</v>
+        <v>0.00214213262745</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0008785484691482669</v>
+        <v>0.0008799151017404557</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0008317790014540001</v>
+        <v>0.0008050544146703</v>
       </c>
       <c r="P11" t="n">
-        <v>6.011375154995894e-07</v>
+        <v>4.670690444521131e-07</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4132981366401232</v>
+        <v>0.3392246357897472</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.310514659709699</v>
+        <v>-1.200113052672874</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7213485650460162</v>
+        <v>0.919908240816909</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01753555924249159</v>
+        <v>0.01721236554973011</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001018114189301051</v>
+        <v>0.0001025566413528084</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06350397288e-06</v>
+        <v>9.548561843053316e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00604482306573</v>
+        <v>0.00209487473107</v>
       </c>
       <c r="X11" t="n">
-        <v>0.000371840968383833</v>
+        <v>0.000272857545913809</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.962348372525e-05</v>
+        <v>7.288747847784665e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.698337062733039e-06</v>
+        <v>3.695965745144757e-07</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.452565616280495</v>
+        <v>2.865268397718979</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.87607095507654</v>
+        <v>6.951801309558755</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1620160849784706</v>
+        <v>0.6899993016319311</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.00440931329451756</v>
+        <v>0.00440696615348232</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.724777816581945e-05</v>
+        <v>5.596022166226952e-05</v>
       </c>
     </row>
   </sheetData>

--- a/temporal_features.xlsx
+++ b/temporal_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,19 +595,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.562117206513333e-07</v>
+        <v>6.755734956910001e-07</v>
       </c>
       <c r="C2" t="n">
         <v>2.83862471437e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>9.741879885662665e-07</v>
+        <v>1.255429744428806e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>7.456344983501667e-07</v>
+        <v>8.986030915905e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>4.485059921931865e-13</v>
+        <v>5.300703586670212e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -616,28 +616,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9491106444338957</v>
+        <v>0.9492601839579848</v>
       </c>
       <c r="J2" t="n">
-        <v>1.76856136835345e-05</v>
+        <v>1.3253431099369e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.184493473293183e-08</v>
+        <v>-1.625711784635466e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>4.199701924e-07</v>
+        <v>6.67879353045e-07</v>
       </c>
       <c r="M2" t="n">
         <v>1.737145590523333e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.687619485278832e-07</v>
+        <v>9.844395616285e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>7.732853631320001e-07</v>
+        <v>7.2290857589e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.54368788044592e-13</v>
+        <v>1.38064674327294e-13</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -646,28 +646,28 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3150390912555523</v>
+        <v>0.7502214882710152</v>
       </c>
       <c r="T2" t="n">
-        <v>1.815951878636934e-05</v>
+        <v>1.0932477325481e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.904818367633259e-08</v>
+        <v>7.523794572142891e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>2.12608354082e-08</v>
+        <v>5.162592486610001e-07</v>
       </c>
       <c r="W2" t="n">
         <v>3.74536020228e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>1.247766978242247e-06</v>
+        <v>1.663372233646422e-06</v>
       </c>
       <c r="Y2" t="n">
         <v>7.278597464915e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.397656181930858e-12</v>
+        <v>1.826600175996749e-12</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9364607246017564</v>
+        <v>0.9425468691480218</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.268566486937677e-05</v>
+        <v>1.782838207127303e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.419221562621565e-07</v>
+        <v>-3.462083073944412e-07</v>
       </c>
     </row>
     <row r="3">
@@ -690,19 +690,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.328038916436666e-07</v>
+        <v>2.562117206513333e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>5.042915583856667e-06</v>
+        <v>1.300182328033333e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>2.196836635959883e-06</v>
+        <v>7.740227414847777e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>1.295573651128167e-06</v>
+        <v>7.083240128695e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1721858379428e-12</v>
+        <v>1.219054520846034e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -711,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9686977421947944</v>
+        <v>0.911823135042276</v>
       </c>
       <c r="J3" t="n">
-        <v>4.08993555129435e-05</v>
+        <v>8.401704138897332e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>2.140359741299571e-07</v>
+        <v>9.467307989626107e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>1.83660527231e-07</v>
+        <v>4.199701924e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>5.871143998156667e-06</v>
+        <v>2.134215219733333e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.554206561117417e-06</v>
+        <v>1.123012889698695e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.846441983513667e-06</v>
+        <v>1.071871288096833e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>3.765724084445275e-12</v>
+        <v>2.854143745345856e-13</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -741,28 +741,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.892119121453035</v>
+        <v>0.2934767411104576</v>
       </c>
       <c r="T3" t="n">
-        <v>4.749361072907334e-05</v>
+        <v>1.255787297955433e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.543035667589235e-07</v>
+        <v>7.213424497993828e-08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.035970242569667e-06</v>
+        <v>2.12608354082e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>7.56457972133e-06</v>
+        <v>2.280367883806667e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>2.511581327136034e-06</v>
+        <v>9.777966108689334e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.853839357328e-06</v>
+        <v>8.654389135843332e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.174402194848788e-12</v>
+        <v>4.168800028984066e-13</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9452492580336078</v>
+        <v>0.8204643856653731</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.593135156077084e-05</v>
+        <v>1.052634323266313e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.021095609651238e-07</v>
+        <v>1.687484901837837e-07</v>
       </c>
     </row>
     <row r="4">
@@ -785,94 +785,94 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.288382499603333e-06</v>
+        <v>7.328038916436666e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000847826073488</v>
+        <v>4.04249785134e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002173078782678913</v>
+        <v>1.733686076727778e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>5.534735352256667e-05</v>
+        <v>1.215194621895e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>7.437382354919686e-08</v>
+        <v>1.182094960407967e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>1.194405015403704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1235548190073574</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9743552202413306</v>
+        <v>0.9458191734366171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003957433544165691</v>
+        <v>1.813750150795183e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.163270279183711e-05</v>
+        <v>2.38584408080916e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>7.850246264147e-06</v>
+        <v>1.83660527231e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001492652093233333</v>
+        <v>5.409177163223334e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000408590137498418</v>
+        <v>2.133830104911083e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>6.171842275453333e-05</v>
+        <v>1.14855182992e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.402958710114082e-07</v>
+        <v>3.539860306911662e-12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9223984869180358</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.6045699883298101</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.932387159239298</v>
+        <v>0.9191508083601724</v>
       </c>
       <c r="T4" t="n">
-        <v>0.007594751744061951</v>
+        <v>2.2311321672155e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>7.512115165641803e-05</v>
+        <v>4.443583831720734e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>6.12953461551e-06</v>
+        <v>1.350776670049334e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001664976117044233</v>
+        <v>2.284175095936667e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0002082985384454998</v>
+        <v>1.738926033789833e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.049335314615667e-05</v>
+        <v>1.604914660931333e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.353308828039652e-07</v>
+        <v>7.400576477276191e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.852501816695595</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.902337070687988</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7280498384462912</v>
+        <v>0.2926217595452785</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.003336282275290522</v>
+        <v>1.8720811652933e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.852215657586392e-05</v>
+        <v>-1.697439470382513e-08</v>
       </c>
     </row>
     <row r="5">
@@ -880,94 +880,94 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.117841906321e-06</v>
+        <v>4.232469665473334e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001019193613977</v>
+        <v>2.560528149156667e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002095236442253393</v>
+        <v>9.067406458060001e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>2.726030122971667e-06</v>
+        <v>8.696506015723334e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>1.105392897400709e-07</v>
+        <v>3.112945129466269e-11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.475840732515087</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6327404961166341</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9288360095596999</v>
+        <v>0.8282952553119179</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003821498747985357</v>
+        <v>9.378484715442834e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>-4.550815888240082e-05</v>
+        <v>1.311884659104522e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>9.677176779176e-07</v>
+        <v>3.511075081936666e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00202932239774</v>
+        <v>3.29287961804e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002991041858197382</v>
+        <v>1.076820273870064e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>2.498910692594234e-06</v>
+        <v>8.691371816733501e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>3.368466160803835e-07</v>
+        <v>5.709458844963289e-11</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.065712638342237</v>
+        <v>2.244984489244263</v>
       </c>
       <c r="R5" t="n">
-        <v>3.271037872668145</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8791311814799632</v>
+        <v>0.7725779669462517</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005284284652605073</v>
+        <v>0.0001098184627751293</v>
       </c>
       <c r="U5" t="n">
-        <v>-7.113641162231619e-05</v>
+        <v>1.711341169429591e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.084584629019466e-06</v>
+        <v>3.021106889423334e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001623754219112</v>
+        <v>2.065152426722667e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.000366156323379267</v>
+        <v>1.08997058231075e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.627642760814866e-06</v>
+        <v>7.42363834794e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.831618480189925e-07</v>
+        <v>4.364160168822289e-11</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.550538669667706</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5715066382663725</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.507994574323405</v>
+        <v>0.4289561318922236</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.006553551111251895</v>
+        <v>0.000118960154298965</v>
       </c>
       <c r="AE5" t="n">
-        <v>-7.331742178965449e-05</v>
+        <v>1.168592006523275e-06</v>
       </c>
     </row>
     <row r="6">
@@ -975,94 +975,94 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.026690207609999e-07</v>
+        <v>4.024645219773333e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.936506471716667e-06</v>
+        <v>0.000847826073488</v>
       </c>
       <c r="D6" t="n">
-        <v>7.903613479264998e-07</v>
+        <v>0.0003546342931333278</v>
       </c>
       <c r="E6" t="n">
-        <v>7.554636030064999e-07</v>
+        <v>0.0003408942367365</v>
       </c>
       <c r="F6" t="n">
-        <v>2.635619617343061e-13</v>
+        <v>7.6789044755693e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.4804028514994487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1.134061053191465</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8869150643842447</v>
+        <v>0.9606365985835883</v>
       </c>
       <c r="J6" t="n">
-        <v>1.432713806789833e-05</v>
+        <v>0.003849908461558733</v>
       </c>
       <c r="K6" t="n">
-        <v>3.303794756823709e-08</v>
+        <v>7.781652412446574e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25466080192e-07</v>
+        <v>5.09390454878e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>3.79945256627e-06</v>
+        <v>0.001492652093233333</v>
       </c>
       <c r="N6" t="n">
-        <v>1.165262435137154e-06</v>
+        <v>0.0006718456913851668</v>
       </c>
       <c r="O6" t="n">
-        <v>7.7786879124945e-07</v>
+        <v>0.0006690772274786667</v>
       </c>
       <c r="P6" t="n">
-        <v>1.257431658162705e-12</v>
+        <v>2.271948280659204e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.1128105567533939</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.266798177337173</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6104320513925056</v>
+        <v>0.8821954408140188</v>
       </c>
       <c r="T6" t="n">
-        <v>2.143888840495413e-05</v>
+        <v>0.00746383740684895</v>
       </c>
       <c r="U6" t="n">
-        <v>6.061844735188934e-08</v>
+        <v>0.0001276895654740273</v>
       </c>
       <c r="V6" t="n">
-        <v>2.3936331885e-07</v>
+        <v>8.899239214733341e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>3.305311998396666e-06</v>
+        <v>0.001664976117044233</v>
       </c>
       <c r="X6" t="n">
-        <v>1.099618867014549e-06</v>
+        <v>0.0003381500105500509</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.007069929262999e-06</v>
+        <v>8.865629617506668e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.978293187654849e-13</v>
+        <v>3.50035729173301e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.039097825311697</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2.600472137087873</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7978930977480931</v>
+        <v>0.7009807739165176</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.958489692476449e-05</v>
+        <v>0.003214595456472088</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.831994353716717e-08</v>
+        <v>0.0001164430490046443</v>
       </c>
     </row>
     <row r="7">
@@ -1070,94 +1070,94 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.498328478222333e-06</v>
+        <v>1.794573472471e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>3.2501154608e-05</v>
+        <v>0.001019193613977</v>
       </c>
       <c r="D7" t="n">
-        <v>7.402801873258683e-06</v>
+        <v>0.0003482411402609829</v>
       </c>
       <c r="E7" t="n">
-        <v>5.425239759996666e-06</v>
+        <v>0.0001281410381081667</v>
       </c>
       <c r="F7" t="n">
-        <v>4.803838388066053e-11</v>
+        <v>1.361257513980399e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>2.577529556501792</v>
+        <v>0.6899380174411676</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-1.367750643366792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9043419534784205</v>
+        <v>0.9068740124940713</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001305828613704253</v>
+        <v>0.003809693094955058</v>
       </c>
       <c r="K7" t="n">
-        <v>9.230640892801776e-07</v>
+        <v>-9.524368412014097e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.63992442246e-08</v>
+        <v>9.677176779176e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001120549315745333</v>
+        <v>0.00202932239774</v>
       </c>
       <c r="N7" t="n">
-        <v>1.396213381446037e-05</v>
+        <v>0.0004972795139268121</v>
       </c>
       <c r="O7" t="n">
-        <v>5.886191889971985e-06</v>
+        <v>0.000115128076692955</v>
       </c>
       <c r="P7" t="n">
-        <v>5.655628355566763e-10</v>
+        <v>4.632272921712399e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.767363053884863</v>
+        <v>1.296723848148783</v>
       </c>
       <c r="R7" t="n">
-        <v>15.37710399043982</v>
+        <v>0.333370507607067</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5616536751196652</v>
+        <v>0.8571792371881993</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002218139268635933</v>
+        <v>0.005269885326688636</v>
       </c>
       <c r="U7" t="n">
-        <v>2.320055736334796e-06</v>
+        <v>-0.0001645044011213131</v>
       </c>
       <c r="V7" t="n">
-        <v>2.93389848933e-07</v>
+        <v>4.098808481666666e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.809582689706e-05</v>
+        <v>0.001623754219112</v>
       </c>
       <c r="X7" t="n">
-        <v>7.826682338091432e-06</v>
+        <v>0.0006087948312591974</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.924873483773331e-06</v>
+        <v>0.000236755109163045</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.50554897098304e-11</v>
+        <v>4.914192847297738e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.75408012287394</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-1.643675844205896</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8805048409582258</v>
+        <v>0.359339008306674</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001464374398855003</v>
+        <v>0.00653457103330798</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.703677297077748e-07</v>
+        <v>-0.0001373618408163301</v>
       </c>
     </row>
     <row r="8">
@@ -1165,94 +1165,94 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.789397799796667e-07</v>
+        <v>6.736923866519999e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009533222485493334</v>
+        <v>1.823898223436666e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003101103836189419</v>
+        <v>1.236723124041194e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001972599756318334</v>
+        <v>1.242409485792333e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>7.923215913511139e-08</v>
+        <v>1.33295296208851e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7400707137433193</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5573713657719455</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8692007451800116</v>
+        <v>0.850684195792882</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006166693262363233</v>
+        <v>1.390570063903933e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.186123192130555e-05</v>
+        <v>-5.292514006718526e-08</v>
       </c>
       <c r="L8" t="n">
-        <v>9.92256985466e-08</v>
+        <v>5.084335666173334e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001570517127946667</v>
+        <v>2.335928917589667e-06</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0005668832636532474</v>
+        <v>1.667792680757734e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0004213585168371666</v>
+        <v>1.617559244084e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.699069856312805e-07</v>
+        <v>2.248040661282238e-13</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6042155140497177</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.994870038978902</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.905154805111238</v>
+        <v>0.2639897092561573</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01123102693129729</v>
+        <v>1.83877048801114e-05</v>
       </c>
       <c r="U8" t="n">
-        <v>-3.228993077352659e-05</v>
+        <v>-7.054541867081393e-08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.836419730784982e-06</v>
+        <v>7.966198421063327e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001641247918376666</v>
+        <v>2.830660656909999e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.919455843595839e-05</v>
+        <v>1.859088828939555e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001123546729143183</v>
+        <v>1.942962426739999e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.116658478846557e-09</v>
+        <v>4.336475939913953e-13</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.5667075695800766</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.263624336520285</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6948852795908503</v>
+        <v>0.3054103908316697</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001777210929797239</v>
+        <v>2.039679891480642e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>-2.74353724608248e-06</v>
+        <v>-9.300131983489775e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1260,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.442941177543333e-07</v>
+        <v>2.026690207609999e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.049601326093333e-06</v>
+        <v>1.003426134478e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.715229632506333e-07</v>
+        <v>4.936755828864443e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>3.953495687565e-07</v>
+        <v>3.534908322771666e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>3.116879137255633e-13</v>
+        <v>7.849044026705198e-14</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1281,28 +1281,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9013171993612447</v>
+        <v>0.7327015781259247</v>
       </c>
       <c r="J9" t="n">
-        <v>1.25533459172095e-05</v>
+        <v>5.063198202780499e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.235686984402556e-08</v>
+        <v>-3.654846046828434e-08</v>
       </c>
       <c r="L9" t="n">
-        <v>6.258421281216668e-08</v>
+        <v>1.25466080192e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>2.836161566673333e-06</v>
+        <v>3.031727293582e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>6.653801240743899e-07</v>
+        <v>6.528336373586899e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>3.359109892651667e-07</v>
+        <v>2.4183608426938e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>6.358374864820369e-13</v>
+        <v>6.938419021082913e-13</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1311,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9205388906696871</v>
+        <v>0.196815103659025</v>
       </c>
       <c r="T9" t="n">
-        <v>1.208561248531395e-05</v>
+        <v>5.638164205973614e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.083170514725309e-07</v>
+        <v>4.137427521577443e-08</v>
       </c>
       <c r="V9" t="n">
-        <v>8.3512421277e-08</v>
+        <v>2.3936331885e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.696113002411649e-06</v>
+        <v>1.70883941327e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>8.969515338035031e-07</v>
+        <v>7.171712482932774e-07</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.600896157263154e-07</v>
+        <v>4.281289170694994e-07</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.217470165765512e-13</v>
+        <v>2.399111230980497e-13</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8389703980042854</v>
+        <v>0.840239759581344</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.689761406206742e-05</v>
+        <v>7.852727164985163e-06</v>
       </c>
       <c r="AE9" t="n">
-        <v>-8.199387909827895e-08</v>
+        <v>-1.187559640249673e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1355,19 +1355,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.928051844363334e-07</v>
+        <v>1.332774082924e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>8.275994879566667e-06</v>
+        <v>3.939259292346667e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>2.777693050194367e-06</v>
+        <v>2.358623023523694e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>2.093823428428333e-06</v>
+        <v>2.093835091502833e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>3.636103699655412e-12</v>
+        <v>6.696556076095467e-13</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9203767255124823</v>
+        <v>0.5125801490424642</v>
       </c>
       <c r="J10" t="n">
-        <v>5.110622605047367e-05</v>
+        <v>2.5667459594649e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.991518697052566e-07</v>
+        <v>1.156129415435816e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>2.06234284095e-08</v>
+        <v>1.047304015881567e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>1.499243951444667e-05</v>
+        <v>1.174236798876667e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2148554618198e-06</v>
+        <v>3.928888723894781e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>2.699434477561583e-06</v>
+        <v>3.503998105483e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.033999650215169e-11</v>
+        <v>6.326932334173383e-12</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1406,28 +1406,28 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.379536905558532</v>
+        <v>0.1641536598734004</v>
       </c>
       <c r="T10" t="n">
-        <v>5.678008756886725e-05</v>
+        <v>3.956768572739103e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>3.889398642742328e-07</v>
+        <v>4.004441257255612e-07</v>
       </c>
       <c r="V10" t="n">
-        <v>8.752790245323155e-07</v>
+        <v>2.93389848933e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>8.908043097906649e-06</v>
+        <v>3.510022719069999e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>3.527671714407705e-06</v>
+        <v>1.816397484205555e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.807846373168815e-06</v>
+        <v>1.647687845492166e-06</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.254134905235823e-12</v>
+        <v>1.303982373796363e-12</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9660415955852133</v>
+        <v>0.7920277109418421</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.561814480399195e-05</v>
+        <v>2.100925146933116e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.503549743628437e-07</v>
+        <v>-1.642080899763262e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1450,94 +1450,759 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
+        <v>4.691253667063333e-06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.2501154608e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.053118375277333e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.742988690556665e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.519212690282508e-11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.372435238930427</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8849503903287671</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001073351842355033</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.675301042868904e-06</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.63992442246e-08</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0001120549315745333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.019027448006966e-05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.011269939980397e-05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.406717709395485e-10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.954697067188098</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5009427423743015</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0001809278668421735</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5.368910877855934e-06</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.521719530184333e-06</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.809582689706e-05</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.195021881998591e-05</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.099293371357e-05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.504793021066477e-11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5152289796673846</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0001328005705579455</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7.243889331874558e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.004988025123333e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0009533222485493334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0004463239456406473</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0004716636762753334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.044969546452027e-08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2967719315292682</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.8796853436951215</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9076450728327822</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004938591057994984</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.442285368536469e-05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0002120363727962667</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.001570517127946667</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0008665325034326334</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0008885305165211668</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.036753087576829e-07</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.03117943219806576</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1.250298044527637</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8909503692842</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.009774593791745801</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0001188986328548102</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.36572519256e-06</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0001641247918376666</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0001084335627849686</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0001236021686542983</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.490910288550834e-09</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-1.248702267530598</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.557034168624984</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.4387433973587433</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.001228305309355087</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>9.725704978520687e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.789397799796667e-07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.000486011322994</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.109734530955841e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.96926412739e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.762576042311671e-08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.833205223753159</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.672672662064214</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.794298139699731</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0006093560754190701</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-2.691786289175609e-05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.92256985466e-08</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0005777722317606667</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.89773026126489e-05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.608778673104433e-06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.46496906369225e-08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.991217538251114</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9.51259583361743</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.7707121914573229</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0006582990155619967</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-3.05204776818692e-05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.358839305649982e-06</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.000125246069307</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.09307078618613e-05</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.666276897838649e-06</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.531414356774159e-09</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.82394901224591</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-1.293105302381356</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.9476513670859407</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0004272272392922027</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-1.28366011004064e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.932058696293334e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.023812539013333e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.355651538860556e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.749098484175e-07</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.684354891345885e-14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8332701927047681</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.551711300218833e-06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-3.418938015401636e-08</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.621052791262667e-07</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.064765778673333e-07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.7513033762655e-07</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.359109892651667e-07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.79669389632433e-14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.6131048622271954</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.0672731230218e-06</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-3.399971246755269e-08</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.3512421277e-08</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.669341523171315e-06</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.06562579253434e-07</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.926643717058154e-07</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.344718975025891e-13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4926184016959887</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.20058554527656e-06</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-4.793174338738933e-08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.442941177543333e-07</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.101621633156666e-06</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.722292548856666e-07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.740855448551667e-07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.985528815959596e-13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9220640145084038</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.04828934528835e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.852369930590769e-07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.06234284095e-08</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.069308750046666e-06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.064331804799445e-07</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0362389056095e-07</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.254970489859964e-12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6842032233113233</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.020951950116257e-05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.179606491107079e-07</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.850440542803154e-07</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.55987273102e-06</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.445591938043014e-06</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.081806844448824e-06</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.064148939286255e-12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.9045960534244981</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.547529273598652e-05</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.668778770083677e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.88789029823e-06</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.275994879566667e-06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.7702473616675e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.37783639535e-06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.301169707264343e-12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.863468653922816</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.007883726367834e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.803604463502447e-07</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.29486348192e-06</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.499243951444667e-05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.481129168513889e-06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.531164614061667e-06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.23044752237678e-11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.03520805745425254</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.562989852398333e-05</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.647923928328205e-07</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.017905411950982e-06</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.908043097906649e-06</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.615544309489682e-06</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.934649144227149e-06</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5.143121257696727e-12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.9672276734467552</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4.945474018068955e-05</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.031331005274273e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
         <v>1.393877069363667e-05</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
+        <v>0.0005601564920646667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0002059857231899419</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0001597933688308333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.518054096981763e-08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9142935125123628</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.444588588376039</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9599180239967549</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002196358343921818</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.113900177230441e-05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.693547919994666e-05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.001081102834252667</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0004193818179662428</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0002575087656218333</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.364470416342604e-07</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6225759174912993</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-1.240871847396946</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9480704329546485</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.004478398329878043</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0001018348817506314</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9.548561843053316e-06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.000142675723645</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.860490516736942e-05</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.288747847784665e-05</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.166429671857884e-09</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.1263671253329709</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-1.509852562048232</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.7498251704804768</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.000875611378516773</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.171462954988548e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0001246825621106666</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.001135445763987333</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0004663925572567151</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0004676924162618334</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.336498660808439e-07</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2684649740185749</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-1.425118070366158</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9478810396160103</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.008882610085057986</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.120952340921826e-05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.693547919994666e-05</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="D18" t="n">
+        <v>0.000645239817803847</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0007662352516028333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.158289272215539e-07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.5002612018834892</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1.16772531265007</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8018664565109103</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.007390524269367582</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-5.97839844843642e-05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0001104931451206</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.00214213262745</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.0008799151017404557</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0008050544146703</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.670690444521131e-07</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.3392246357897472</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-1.200113052672874</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.919908240816909</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.01721236554973011</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.0001025566413528084</v>
-      </c>
-      <c r="V11" t="n">
-        <v>9.548561843053316e-06</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="N18" t="n">
+        <v>0.001093875487352317</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.001353953281268634</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.666240275666957e-07</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.2238940420291333</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1.733357376562121</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8880891918877316</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0123868660800603</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.0001710147345575988</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.740592506169332e-05</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.00209487473107</v>
       </c>
-      <c r="X11" t="n">
-        <v>0.000272857545913809</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>7.288747847784665e-05</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3.695965745144757e-07</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.865268397718979</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>6.951801309558755</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.6899993016319311</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.00440696615348232</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5.596022166226952e-05</v>
+      <c r="X18" t="n">
+        <v>0.00057698975683159</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.68861846401e-05</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.646024027486355e-07</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.322993214720854</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.3297388957598777</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.5530215812787254</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.00682699089733898</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.903253555615186e-05</v>
       </c>
     </row>
   </sheetData>
